--- a/data-raw/model-runs/GHGI_data_bistline.xlsx
+++ b/data-raw/model-runs/GHGI_data_bistline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C849CFB-303F-4395-BAFB-2D50430C765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70312C2-20FD-4434-914E-F592DE54CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,21 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>EPA-GHGI</t>
   </si>
   <si>
@@ -84,6 +69,21 @@
   </si>
   <si>
     <t>Mt CO2e/yr</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -404,36 +404,36 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="37" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <v>1990</v>
@@ -532,21 +532,21 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1468.9</v>
@@ -645,21 +645,21 @@
         <v>1699.7304573804574</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1820</v>
@@ -758,21 +758,21 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>853.7</v>
@@ -871,21 +871,21 @@
         <v>777.34664804469276</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>566.90000000000009</v>
@@ -984,21 +984,21 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>5122.4962481832199</v>
@@ -1097,21 +1097,21 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>6453.4502232525201</v>
